--- a/WorkFlowTestCase.xlsx
+++ b/WorkFlowTestCase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -92,6 +92,18 @@
   </x:si>
   <x:si>
     <x:t>User should be able to validate that in 'Open Activities'/'Activity History'.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_5.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Validate the Duedate for Time dependent-task created.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -175,8 +187,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J5" totalsRowShown="0">
-  <x:autoFilter ref="A1:J5"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J10" totalsRowShown="0">
+  <x:autoFilter ref="A1:J10"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -481,7 +493,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J5"/>
+  <x:dimension ref="A1:J10"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -611,6 +623,104 @@
       <x:c r="I5" s="0" t="s"/>
       <x:c r="J5" s="0" t="s"/>
     </x:row>
+    <x:row r="6" spans="1:10">
+      <x:c r="A6" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s"/>
+      <x:c r="F6" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s"/>
+      <x:c r="J6" s="0" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:10">
+      <x:c r="A7" s="0" t="s"/>
+      <x:c r="B7" s="0" t="s"/>
+      <x:c r="C7" s="0" t="s"/>
+      <x:c r="D7" s="0" t="s"/>
+      <x:c r="E7" s="0" t="s"/>
+      <x:c r="F7" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s"/>
+      <x:c r="J7" s="0" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:10">
+      <x:c r="A8" s="0" t="s"/>
+      <x:c r="B8" s="0" t="s"/>
+      <x:c r="C8" s="0" t="s"/>
+      <x:c r="D8" s="0" t="s"/>
+      <x:c r="E8" s="0" t="s"/>
+      <x:c r="F8" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s"/>
+      <x:c r="J8" s="0" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:10">
+      <x:c r="A9" s="0" t="s"/>
+      <x:c r="B9" s="0" t="s"/>
+      <x:c r="C9" s="0" t="s"/>
+      <x:c r="D9" s="0" t="s"/>
+      <x:c r="E9" s="0" t="s"/>
+      <x:c r="F9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s"/>
+      <x:c r="J9" s="0" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:10">
+      <x:c r="A10" s="0" t="s"/>
+      <x:c r="B10" s="0" t="s"/>
+      <x:c r="C10" s="0" t="s"/>
+      <x:c r="D10" s="0" t="s"/>
+      <x:c r="E10" s="0" t="s"/>
+      <x:c r="F10" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s"/>
+      <x:c r="J10" s="0" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
